--- a/data/hotels_by_city/Dallas/Dallas_shard_137.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_137.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>kpryor89</t>
   </si>
   <si>
     <t>06/07/2018</t>
@@ -212,6 +215,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>MarieandJayR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r563710833-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -233,6 +239,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Niki L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r557822090-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -251,6 +260,9 @@
     <t>I had the pleasure of staying here on a business trip. The commendations were so relaxing that it seemed as if I was traveling for pleasure. The staff are very nice and accommodating. The rooms are on the small side but situated in such a way that it's not tight, plenty of maneuvering room and a nice comfy sofa and work space. One of the features I really enjoyed was the refrigerator and microwave! I highly recommend this location for business or personal travel. Traveler alert - this hotel does not have room service or a restaurant so if you like to dine in this is not the hotel for you. However they do have a bistro that serves light finger foods and drinks. More</t>
   </si>
   <si>
+    <t>kjuiceman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r553147464-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -269,6 +281,9 @@
     <t>I stayed here will on Business in Plano. This is a newer design multi-story courtyard that has recently been remodeled. It is located just off the Geo Bush tollway in somewhat of an industrial area. My room was on the back side of the hotel and nice and quiet. The view is not scenic but it was quiet. I would imagine rooms on the freeway facing side get a fair amount of noise so keep that under consideration. Staff was nice and pleasant, exercise room was clean and well equipped with newer equipment, all functioning. There are a ton of restaurants about a 10 min drive away, nothing really walkable. I ate a burger in the bistro which was pretty good. More</t>
   </si>
   <si>
+    <t>Stanley_Sankey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r528832143-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -296,6 +311,9 @@
     <t>I arrived late in the evening after a late night flight into DFW. I really appreciated the efficiency of the front desk staff that had me checked in and in my room in minutes.  The room was a good size including a sofa, desk, coffee machine, refrigerator, and microwave.  The bathroom was also large and spotless.The coffee for the coffee machine was restocked in the room daily and there was a small shop in the lobby were you could purchase snacks or prepared meals to heat in your room should you not wish to take advantage of the restaurant.  I had to attend a client site the next day and the same gentleman that checked me in arranged for the hotel shuttle to take me to my meeting and a number to call for pickup afterwards.  He also arranged for a ride to the airport for the following day.  Excellent service.Had breakfast in the restaurant two days running, service and food was excellent at a reasonable price.Only drawback is the area is an industrial area along a major freeway so there are not much for other services in walking distance to the hotel.  There is a small mall about 20 minutes walk away on the other side of the freeway, and there is not sidewalks on much of service road the hotel fronts.  Would not hesitate to stay there again when I am back in Dallas.More</t>
   </si>
   <si>
+    <t>Manbyk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r525240154-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
   </si>
   <si>
     <t>After a particulary long day traveling relaxing at this Courtyard by Marriott was most welcome.  This is a new property with the latest in the franchise's modern convienances.  Very comfortable bed, walk in shower, lounge chair &amp; ottoman, multiple charging plugs for electronic devices.  My room was on the backside away from East President George Bush Highway (busy thoroughfare) which allowed the best nights sleep in weeks.  Although there is nothing within walking distance, a short five minute drive will take you to dozens of restaurants and a Whole Foods grocery store.  The entire area appears to be new within the past 5-7 years.  I would suggest to the management to increase the size of their building number which currently is on the hotels overhang.  Very difficult to see especially when driving by, impossible to see from the highway.More</t>
+  </si>
+  <si>
+    <t>Bridgett Q</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r523301534-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -342,6 +363,9 @@
 The room was better than typical, as well as comfortable and clean. To me, clean is the most important aspect of any hotel (clean linens, clean floor, clean counters, clean fixtures). The room amenities included a refrigerator and microwave. The tv had built in Netflix (you need to login to your Netflix account) and lots of plugs for your electronics. The lighting was also very good - individual lighting over each bed and nightstand. The bathroom was also well-lit, large and clean (clean tile, clean toilet, clean sink and clean floor)....I just want to say thank you, Courtyard and Courtyard staff! We were displaced for about 5 days because of Hurricane Harvey and the staff here was soooo helpful. The young lady who checked us in was able to give us a special rate so that we would not be financially stressed in such a stressful time. God bless y'all! I cannot remember her name at the moment, but I was on the verge of tears when I was checking in and she really lightened my heart.We got into town on a Friday and had taken a room at an awful Embassy Suites which was more expensive, and from which we checked out as soon as they would let us (we were stuck with a two night commitment). So when we checked in to this lovely, clean, new, Courtyard on Sunday; it was a pleasant surprise and relief.The room was better than typical, as well as comfortable and clean. To me, clean is the most important aspect of any hotel (clean linens, clean floor, clean counters, clean fixtures). The room amenities included a refrigerator and microwave. The tv had built in Netflix (you need to login to your Netflix account) and lots of plugs for your electronics. The lighting was also very good - individual lighting over each bed and nightstand. The bathroom was also well-lit, large and clean (clean tile, clean toilet, clean sink and clean floor).My little complaint was the the closet was a little small. I couldn't unfold the luggage rack in the closet because it was a tad too wide when opened. Oh yeah, and the beds were on a regular frame so that one could accidentally leave something under the bed (like a slipper or sock). But still, I checked under there and it was clean - so it appears that they vacuum under there as they should.It is also conveniently located. There's not a lot happening on that side of the freeway, which makes for calm and easy access; while there is lots going on just up the road on the other side of the freeway, which makes for an entertaining time. There are a bunch of little food shopping and dining spots on State Street and E. Renner Rd on the opposite side of the freeway.If ever I have the occasion to be in Plano/Richardson/Dallas area for a trip, I would certainly consider staying here again. Again, I truly appreciate the thoughtfulness of their front desk staff.More</t>
   </si>
   <si>
+    <t>jtwilcoxii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r521153010-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -357,6 +381,9 @@
     <t>Nice hotel -- brand new and well taken care of.  Great beds, pool, and lobby.  The hotel staff was friendly and let us use the lobby for an after-game pizza party.  Housekeeping did a great job and anything extra the hotel happily provided.  Only drawback is breakfast was not included (more places provide this service than not these days) in the stay...and the pay as you go Bistro didn't open until 0700.  But the hotel started opening it at 0630 so the early departing teams could grab a bite to eat.  Thanks for the great weekend!!</t>
   </si>
   <si>
+    <t>jigenia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r519225967-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -373,6 +400,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>LimeCreekRider</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r507570503-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -404,6 +434,9 @@
 Overall I like this...Been staying at Courtyard's for years, and this is probably the newest one I've been to. I really like the new style, architecture, decor, and furniture. Was really impressed with the shower, it's one of the best I've seen in any hotel anywhere - regardless of star rating. Here are a few other things I really liked:1. Couch/Chaise - in the room they have a large loveseat/chaise piece of furniture. (probably a real name for it, but I'm not a furniture expert). I loved this thing, was really comfortable for working on my laptop and watching TV. Normally I just hang out at a desk, but this was too good to pass up. Never seen one of these in a hotel. 2. Netflix on the in-room TV. I was able to sign in with Netflix on the TV in the room (it is supposed to automatically log you out at checkout). Was really cool to continue watching some of my shows from the hotel. The TV was really nice and modern too. 3. USB / Power on the nightstand. Sometimes its the little things that make me happy, like a hotel that thinks about business travelers and puts USB connections and power outlets on the nightstand next to the bed. Why doesn't everyone do this like Marriott does ? I can't stand having to hunt for power, or leave my phone across the room charging. Overall I like this property, the combination of location, staff (they were great !), decor, furniture, and value made for a great stay.More</t>
   </si>
   <si>
+    <t>Shan59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r499177384-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -422,6 +455,9 @@
     <t>We were in Dallas, Texas for a Family Reunion.  While most family members stayed at our usual hotel.  I always try to stay somewhere newer and different and this less than a year old hotel in Plano, Tx did not disappoint.  It was fairly close to the family hotel of choice in Dallas and in a safe, up and coming area of Plano. The staff at the hotel was very nice and extremely helpful.  Never saw one grumbly face.  Thank you for that.  I am terrible at remembering names or I would give a shout out.  We were there June 30th until July 3rd.  I was with a group of 11.  You wonderful people know who you are. The group I was with was not ready to leave this extremely comfortable hotel.  We had a great time in the Dallas, Plano area.More</t>
   </si>
   <si>
+    <t>Michael F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r492883608-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -440,6 +476,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Rick M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r463610354-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -458,6 +497,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>JVBV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r454287737-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -482,6 +524,9 @@
     <t>Nice hotel, courteous / professional staff.  But it is right on a busy freeway with no buffer of any kind.  Seems to be good access to local businesses and restaurants.  Hotel is also very new which is a plus.  I would recommend asking for a room facing the back of the hotel if you want to get some sleep!.More</t>
   </si>
   <si>
+    <t>Travelingfamilia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r582742512-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -509,6 +554,9 @@
     <t>Picked this property because they do not allow dogs. Newer Property. The hotel is very clean. Front desk staff not very friendly at all. We must have arrived at a bad time for the agent. The room is very clean.More</t>
   </si>
   <si>
+    <t>livingL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r580930164-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -524,6 +572,9 @@
     <t>This property was super easy to find, check-in was a breeze.  And since it is practically brand new...super comfortable.  About 20 minutes from downtown Dallas, and 5 mins from Downtown Plano ;)  Free parking is available in the lot in front, or the parking garage off to the side.</t>
   </si>
   <si>
+    <t>PeterGriff6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r578392464-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -539,6 +590,9 @@
     <t xml:space="preserve">A new modern elegant hotel right off the expressway.Choose rings that face away from the main road as noises may be bothersome.They did have dual glass windows but the noise was too bothersome for me.Breakfast needs to be paid separately but have healthy options. </t>
   </si>
   <si>
+    <t>Dao K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r573761510-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -558,6 +612,9 @@
   </si>
   <si>
     <t>Pretty nice new hotel!  Easy access to George Bush &amp; Central Expressway.  Check-in went very smooth, luv the layout of the room and the shower (wow it was very nice!!!).  Highly recommend location for business or personal travel.  Will come back again!More</t>
+  </si>
+  <si>
+    <t>Marvin S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r572312198-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -1086,43 +1143,47 @@
       <c r="A2" t="n">
         <v>65499</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1134,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1153,37 +1214,37 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1203,50 +1264,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65499</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>127203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1260,50 +1325,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65499</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>111466</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
         <v>70</v>
-      </c>
-      <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" t="s">
-        <v>68</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1317,50 +1386,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65499</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>127204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1374,50 +1447,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65499</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>127205</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1435,56 +1512,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65499</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>127206</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="J8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>86</v>
-      </c>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1504,50 +1585,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65499</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>1733</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1567,41 +1652,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65499</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>127207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
@@ -1620,50 +1709,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65499</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>127208</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>109</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>102</v>
-      </c>
       <c r="O11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1677,50 +1770,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65499</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>127209</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1740,50 +1837,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65499</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>127210</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1801,50 +1902,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65499</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1864,50 +1969,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65499</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>14861</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1921,50 +2030,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65499</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127211</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -1980,56 +2093,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65499</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>127212</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2041,56 +2158,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="X17" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65499</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>127213</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2108,50 +2229,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65499</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>127214</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2165,50 +2290,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65499</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>127215</v>
+      </c>
+      <c r="C20" t="s">
+        <v>184</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2220,56 +2349,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="X20" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65499</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>26400</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2287,13 +2420,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="X21" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_137.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_137.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
   <si>
     <t>STR#</t>
   </si>
@@ -147,19 +147,166 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>kpryor89</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r588574593-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>10831737</t>
+  </si>
+  <si>
+    <t>588574593</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Quick trip to Dallas</t>
+  </si>
+  <si>
+    <t>Very nice hotel, and staff are great.  Will definitely stay during my next visit to the area. Located right off of the highway, makes it easy to get back on and off to find restaurants close by.  Bar staff are so nice and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Allie G, General Manager at Courtyard by Marriott Dallas Plano/Richardson, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel, and staff are great.  Will definitely stay during my next visit to the area. Located right off of the highway, makes it easy to get back on and off to find restaurants close by.  Bar staff are so nice and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r582742512-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>582742512</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>Property Nice/ Staff not so much</t>
+  </si>
+  <si>
+    <t>Picked this property because they do not allow dogs. Newer Property. The hotel is very clean. Front desk staff not very friendly at all. We must have arrived at a bad time for the agent. The room is very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Andrew R, Manager at Courtyard by Marriott Dallas Plano/Richardson, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Picked this property because they do not allow dogs. Newer Property. The hotel is very clean. Front desk staff not very friendly at all. We must have arrived at a bad time for the agent. The room is very clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r580930164-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>580930164</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Easy access location; brand new property</t>
+  </si>
+  <si>
+    <t>This property was super easy to find, check-in was a breeze.  And since it is practically brand new...super comfortable.  About 20 minutes from downtown Dallas, and 5 mins from Downtown Plano ;)  Free parking is available in the lot in front, or the parking garage off to the side.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew R, Manager at Courtyard by Marriott Dallas Plano/Richardson, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>This property was super easy to find, check-in was a breeze.  And since it is practically brand new...super comfortable.  About 20 minutes from downtown Dallas, and 5 mins from Downtown Plano ;)  Free parking is available in the lot in front, or the parking garage off to the side.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r578392464-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>578392464</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>New hotel right next to expressway</t>
+  </si>
+  <si>
+    <t>A new modern elegant hotel right off the expressway.Choose rings that face away from the main road as noises may be bothersome.They did have dual glass windows but the noise was too bothersome for me.Breakfast needs to be paid separately but have healthy options. MoreShow less</t>
+  </si>
+  <si>
+    <t>A new modern elegant hotel right off the expressway.Choose rings that face away from the main road as noises may be bothersome.They did have dual glass windows but the noise was too bothersome for me.Breakfast needs to be paid separately but have healthy options. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r573761510-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>573761510</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Relaxing Overnight Stay</t>
+  </si>
+  <si>
+    <t>Pretty nice new hotel!  Easy access to George Bush &amp; Central Expressway.  Check-in went very smooth, luv the layout of the room and the shower (wow it was very nice!!!).  Highly recommend location for business or personal travel.  Will come back again!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Pretty nice new hotel!  Easy access to George Bush &amp; Central Expressway.  Check-in went very smooth, luv the layout of the room and the shower (wow it was very nice!!!).  Highly recommend location for business or personal travel.  Will come back again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r572312198-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>572312198</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>In Town for a Party</t>
+  </si>
+  <si>
+    <t>Rooms very well designed. Motel right on PGBT which has a lot of road noise. Room was on the back side of hotel. No road noise. The person at registration had an attitude. Acted like she could care if I stayed at the hotel. Later, I discovered i did not have a lint brush. Went to the front desk and asked if they had a lint brush. Received a cold "No". Then a maintenance superintendent standing nearby offered some high grade maintenance tape. Worked liked a champ. Great when support personnel pick up for non-receptive desk personnel.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Andrew R, Manager at Courtyard by Marriott Dallas Plano/Richardson, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Rooms very well designed. Motel right on PGBT which has a lot of road noise. Room was on the back side of hotel. No road noise. The person at registration had an attitude. Acted like she could care if I stayed at the hotel. Later, I discovered i did not have a lint brush. Went to the front desk and asked if they had a lint brush. Received a cold "No". Then a maintenance superintendent standing nearby offered some high grade maintenance tape. Worked liked a champ. Great when support personnel pick up for non-receptive desk personnel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r570255346-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>10831737</t>
   </si>
   <si>
     <t>570255346</t>
@@ -181,9 +328,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Andrew R, Manager at Courtyard by Marriott Dallas Plano/Richardson, responded to this reviewResponded April 3, 2018</t>
   </si>
   <si>
@@ -215,9 +359,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t>MarieandJayR</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r563710833-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -236,12 +377,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Niki L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r557822090-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -260,9 +395,6 @@
     <t>I had the pleasure of staying here on a business trip. The commendations were so relaxing that it seemed as if I was traveling for pleasure. The staff are very nice and accommodating. The rooms are on the small side but situated in such a way that it's not tight, plenty of maneuvering room and a nice comfy sofa and work space. One of the features I really enjoyed was the refrigerator and microwave! I highly recommend this location for business or personal travel. Traveler alert - this hotel does not have room service or a restaurant so if you like to dine in this is not the hotel for you. However they do have a bistro that serves light finger foods and drinks. More</t>
   </si>
   <si>
-    <t>kjuiceman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r553147464-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -281,7 +413,100 @@
     <t>I stayed here will on Business in Plano. This is a newer design multi-story courtyard that has recently been remodeled. It is located just off the Geo Bush tollway in somewhat of an industrial area. My room was on the back side of the hotel and nice and quiet. The view is not scenic but it was quiet. I would imagine rooms on the freeway facing side get a fair amount of noise so keep that under consideration. Staff was nice and pleasant, exercise room was clean and well equipped with newer equipment, all functioning. There are a ton of restaurants about a 10 min drive away, nothing really walkable. I ate a burger in the bistro which was pretty good. More</t>
   </si>
   <si>
-    <t>Stanley_Sankey</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r550977638-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>550977638</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Relaxing visit</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this property the week of Thanksgiving and we were extremely pleased.  The rooms were clean and spacious and the Bistro food and drinks were phenomenal.  All of the staff was extremely accommodating and this property was convenient to everything.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r546303547-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>546303547</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice , clean hotel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel seemed very clean and modern looking. We enjoyed our stay. Great location. I would recommend this hotel. The rooms have a different layout. It worked for us. Very nice bathroom. The free coffee in the room was good. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r545378948-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>545378948</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>It's pretty... but not functional and they aren't helpful</t>
+  </si>
+  <si>
+    <t>Basically when you arrive or look at pictures the hotel looks like it will be great.  Sadly, the walls are paper thin and the people in charge are not up to Marriott Standards.  I'm an elite member and will never stay there again. Basically the employees were told to move decorations early in the morning down the hallway that made lots of noise, when I opened the door at an ungodly hour the employee apologized and said his boss told him he had too even though he was told about the noise.  I could hear everything our neighbor did, pretty sure he had a cold based on his amount of sneezing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Allie G, General Manager at Courtyard by Marriott Dallas Plano/Richardson, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Basically when you arrive or look at pictures the hotel looks like it will be great.  Sadly, the walls are paper thin and the people in charge are not up to Marriott Standards.  I'm an elite member and will never stay there again. Basically the employees were told to move decorations early in the morning down the hallway that made lots of noise, when I opened the door at an ungodly hour the employee apologized and said his boss told him he had too even though he was told about the noise.  I could hear everything our neighbor did, pretty sure he had a cold based on his amount of sneezing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r532493973-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>532493973</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>Enjoyable visit</t>
+  </si>
+  <si>
+    <t>I had a nice trip here. The room was always clean every day. The hotel is next to a busy road but I couldn't hear it at all which was awesome. The workers were super friendly and always enthusiastically greeted me when I came through the door. The bed is really comfortable. The only negative I had is the breakfast, it is pretty expensive for a sandwich that was microwaved and half cold. But everything else about my stay was fantastic.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>I had a nice trip here. The room was always clean every day. The hotel is next to a busy road but I couldn't hear it at all which was awesome. The workers were super friendly and always enthusiastically greeted me when I came through the door. The bed is really comfortable. The only negative I had is the breakfast, it is pretty expensive for a sandwich that was microwaved and half cold. But everything else about my stay was fantastic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r532037124-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>532037124</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Top Notch Hotel With A Top Notch Staff!!!</t>
+  </si>
+  <si>
+    <t>As a Plano-based business owner who lives out of town, I spend at least one to two nights per week in town and have been staying at the Courtyard for months now. It is easily one of the most hospitable, caring and attentive staffs that I have ever dealt with in my 20+ years of corporate travel. From remembering my name when I hit the door to knowing that I like to be on a lower level so that I'm closer to the workout facility for an early A.M. workout, they are on it. Great team; great facility; great service. What more can you ask for???MoreShow less</t>
+  </si>
+  <si>
+    <t>As a Plano-based business owner who lives out of town, I spend at least one to two nights per week in town and have been staying at the Courtyard for months now. It is easily one of the most hospitable, caring and attentive staffs that I have ever dealt with in my 20+ years of corporate travel. From remembering my name when I hit the door to knowing that I like to be on a lower level so that I'm closer to the workout facility for an early A.M. workout, they are on it. Great team; great facility; great service. What more can you ask for???More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r528832143-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -302,18 +527,9 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>Allie G, General Manager at Courtyard by Marriott Dallas Plano/Richardson, responded to this reviewResponded December 6, 2017</t>
-  </si>
-  <si>
-    <t>Responded December 6, 2017</t>
-  </si>
-  <si>
     <t>I arrived late in the evening after a late night flight into DFW. I really appreciated the efficiency of the front desk staff that had me checked in and in my room in minutes.  The room was a good size including a sofa, desk, coffee machine, refrigerator, and microwave.  The bathroom was also large and spotless.The coffee for the coffee machine was restocked in the room daily and there was a small shop in the lobby were you could purchase snacks or prepared meals to heat in your room should you not wish to take advantage of the restaurant.  I had to attend a client site the next day and the same gentleman that checked me in arranged for the hotel shuttle to take me to my meeting and a number to call for pickup afterwards.  He also arranged for a ride to the airport for the following day.  Excellent service.Had breakfast in the restaurant two days running, service and food was excellent at a reasonable price.Only drawback is the area is an industrial area along a major freeway so there are not much for other services in walking distance to the hotel.  There is a small mall about 20 minutes walk away on the other side of the freeway, and there is not sidewalks on much of service road the hotel fronts.  Would not hesitate to stay there again when I am back in Dallas.More</t>
   </si>
   <si>
-    <t>Manbyk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r525240154-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -329,13 +545,7 @@
     <t>After a particulary long day traveling relaxing at this Courtyard by Marriott was most welcome.  This is a new property with the latest in the franchise's modern convienances.  Very comfortable bed, walk in shower, lounge chair &amp; ottoman, multiple charging plugs for electronic devices.  My room was on the backside away from East President George Bush Highway (busy thoroughfare) which allowed the best nights sleep in weeks.  Although there is nothing within walking distance, a short five minute drive will take you to dozens of restaurants and a Whole Foods grocery store.  The entire area appears to be new within the past 5-7 years.  I would suggest to the management to increase the size of their building number which currently is on the hotels overhang.  Very difficult to see especially when driving by, impossible to see from the highway.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>After a particulary long day traveling relaxing at this Courtyard by Marriott was most welcome.  This is a new property with the latest in the franchise's modern convienances.  Very comfortable bed, walk in shower, lounge chair &amp; ottoman, multiple charging plugs for electronic devices.  My room was on the backside away from East President George Bush Highway (busy thoroughfare) which allowed the best nights sleep in weeks.  Although there is nothing within walking distance, a short five minute drive will take you to dozens of restaurants and a Whole Foods grocery store.  The entire area appears to be new within the past 5-7 years.  I would suggest to the management to increase the size of their building number which currently is on the hotels overhang.  Very difficult to see especially when driving by, impossible to see from the highway.More</t>
-  </si>
-  <si>
-    <t>Bridgett Q</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r523301534-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -363,9 +573,6 @@
 The room was better than typical, as well as comfortable and clean. To me, clean is the most important aspect of any hotel (clean linens, clean floor, clean counters, clean fixtures). The room amenities included a refrigerator and microwave. The tv had built in Netflix (you need to login to your Netflix account) and lots of plugs for your electronics. The lighting was also very good - individual lighting over each bed and nightstand. The bathroom was also well-lit, large and clean (clean tile, clean toilet, clean sink and clean floor)....I just want to say thank you, Courtyard and Courtyard staff! We were displaced for about 5 days because of Hurricane Harvey and the staff here was soooo helpful. The young lady who checked us in was able to give us a special rate so that we would not be financially stressed in such a stressful time. God bless y'all! I cannot remember her name at the moment, but I was on the verge of tears when I was checking in and she really lightened my heart.We got into town on a Friday and had taken a room at an awful Embassy Suites which was more expensive, and from which we checked out as soon as they would let us (we were stuck with a two night commitment). So when we checked in to this lovely, clean, new, Courtyard on Sunday; it was a pleasant surprise and relief.The room was better than typical, as well as comfortable and clean. To me, clean is the most important aspect of any hotel (clean linens, clean floor, clean counters, clean fixtures). The room amenities included a refrigerator and microwave. The tv had built in Netflix (you need to login to your Netflix account) and lots of plugs for your electronics. The lighting was also very good - individual lighting over each bed and nightstand. The bathroom was also well-lit, large and clean (clean tile, clean toilet, clean sink and clean floor).My little complaint was the the closet was a little small. I couldn't unfold the luggage rack in the closet because it was a tad too wide when opened. Oh yeah, and the beds were on a regular frame so that one could accidentally leave something under the bed (like a slipper or sock). But still, I checked under there and it was clean - so it appears that they vacuum under there as they should.It is also conveniently located. There's not a lot happening on that side of the freeway, which makes for calm and easy access; while there is lots going on just up the road on the other side of the freeway, which makes for an entertaining time. There are a bunch of little food shopping and dining spots on State Street and E. Renner Rd on the opposite side of the freeway.If ever I have the occasion to be in Plano/Richardson/Dallas area for a trip, I would certainly consider staying here again. Again, I truly appreciate the thoughtfulness of their front desk staff.More</t>
   </si>
   <si>
-    <t>jtwilcoxii</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r521153010-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -381,9 +588,6 @@
     <t>Nice hotel -- brand new and well taken care of.  Great beds, pool, and lobby.  The hotel staff was friendly and let us use the lobby for an after-game pizza party.  Housekeeping did a great job and anything extra the hotel happily provided.  Only drawback is breakfast was not included (more places provide this service than not these days) in the stay...and the pay as you go Bistro didn't open until 0700.  But the hotel started opening it at 0630 so the early departing teams could grab a bite to eat.  Thanks for the great weekend!!</t>
   </si>
   <si>
-    <t>jigenia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r519225967-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -400,9 +604,6 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>LimeCreekRider</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r507570503-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
@@ -434,9 +635,6 @@
 Overall I like this...Been staying at Courtyard's for years, and this is probably the newest one I've been to. I really like the new style, architecture, decor, and furniture. Was really impressed with the shower, it's one of the best I've seen in any hotel anywhere - regardless of star rating. Here are a few other things I really liked:1. Couch/Chaise - in the room they have a large loveseat/chaise piece of furniture. (probably a real name for it, but I'm not a furniture expert). I loved this thing, was really comfortable for working on my laptop and watching TV. Normally I just hang out at a desk, but this was too good to pass up. Never seen one of these in a hotel. 2. Netflix on the in-room TV. I was able to sign in with Netflix on the TV in the room (it is supposed to automatically log you out at checkout). Was really cool to continue watching some of my shows from the hotel. The TV was really nice and modern too. 3. USB / Power on the nightstand. Sometimes its the little things that make me happy, like a hotel that thinks about business travelers and puts USB connections and power outlets on the nightstand next to the bed. Why doesn't everyone do this like Marriott does ? I can't stand having to hunt for power, or leave my phone across the room charging. Overall I like this property, the combination of location, staff (they were great !), decor, furniture, and value made for a great stay.More</t>
   </si>
   <si>
-    <t>Shan59</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r499177384-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -455,9 +653,6 @@
     <t>We were in Dallas, Texas for a Family Reunion.  While most family members stayed at our usual hotel.  I always try to stay somewhere newer and different and this less than a year old hotel in Plano, Tx did not disappoint.  It was fairly close to the family hotel of choice in Dallas and in a safe, up and coming area of Plano. The staff at the hotel was very nice and extremely helpful.  Never saw one grumbly face.  Thank you for that.  I am terrible at remembering names or I would give a shout out.  We were there June 30th until July 3rd.  I was with a group of 11.  You wonderful people know who you are. The group I was with was not ready to leave this extremely comfortable hotel.  We had a great time in the Dallas, Plano area.More</t>
   </si>
   <si>
-    <t>Michael F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r492883608-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -476,9 +671,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t>Rick M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r463610354-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -497,9 +689,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>JVBV</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r454287737-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
   </si>
   <si>
@@ -524,121 +713,49 @@
     <t>Nice hotel, courteous / professional staff.  But it is right on a busy freeway with no buffer of any kind.  Seems to be good access to local businesses and restaurants.  Hotel is also very new which is a plus.  I would recommend asking for a room facing the back of the hotel if you want to get some sleep!.More</t>
   </si>
   <si>
-    <t>Travelingfamilia</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r582742512-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>582742512</t>
-  </si>
-  <si>
-    <t>05/25/2018</t>
-  </si>
-  <si>
-    <t>Property Nice/ Staff not so much</t>
-  </si>
-  <si>
-    <t>Picked this property because they do not allow dogs. Newer Property. The hotel is very clean. Front desk staff not very friendly at all. We must have arrived at a bad time for the agent. The room is very clean.MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t>Andrew R, Manager at Courtyard by Marriott Dallas Plano/Richardson, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
-  </si>
-  <si>
-    <t>Picked this property because they do not allow dogs. Newer Property. The hotel is very clean. Front desk staff not very friendly at all. We must have arrived at a bad time for the agent. The room is very clean.More</t>
-  </si>
-  <si>
-    <t>livingL</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r580930164-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>580930164</t>
-  </si>
-  <si>
-    <t>05/17/2018</t>
-  </si>
-  <si>
-    <t>Easy access location; brand new property</t>
-  </si>
-  <si>
-    <t>This property was super easy to find, check-in was a breeze.  And since it is practically brand new...super comfortable.  About 20 minutes from downtown Dallas, and 5 mins from Downtown Plano ;)  Free parking is available in the lot in front, or the parking garage off to the side.</t>
-  </si>
-  <si>
-    <t>PeterGriff6</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r578392464-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>578392464</t>
-  </si>
-  <si>
-    <t>05/06/2018</t>
-  </si>
-  <si>
-    <t>New hotel right next to expressway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A new modern elegant hotel right off the expressway.Choose rings that face away from the main road as noises may be bothersome.They did have dual glass windows but the noise was too bothersome for me.Breakfast needs to be paid separately but have healthy options. </t>
-  </si>
-  <si>
-    <t>Dao K</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r573761510-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>573761510</t>
-  </si>
-  <si>
-    <t>04/16/2018</t>
-  </si>
-  <si>
-    <t>Relaxing Overnight Stay</t>
-  </si>
-  <si>
-    <t>Pretty nice new hotel!  Easy access to George Bush &amp; Central Expressway.  Check-in went very smooth, luv the layout of the room and the shower (wow it was very nice!!!).  Highly recommend location for business or personal travel.  Will come back again!MoreShow less</t>
-  </si>
-  <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t>Pretty nice new hotel!  Easy access to George Bush &amp; Central Expressway.  Check-in went very smooth, luv the layout of the room and the shower (wow it was very nice!!!).  Highly recommend location for business or personal travel.  Will come back again!More</t>
-  </si>
-  <si>
-    <t>Marvin S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r572312198-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
-  </si>
-  <si>
-    <t>572312198</t>
-  </si>
-  <si>
-    <t>04/09/2018</t>
-  </si>
-  <si>
-    <t>In Town for a Party</t>
-  </si>
-  <si>
-    <t>Rooms very well designed. Motel right on PGBT which has a lot of road noise. Room was on the back side of hotel. No road noise. The person at registration had an attitude. Acted like she could care if I stayed at the hotel. Later, I discovered i did not have a lint brush. Went to the front desk and asked if they had a lint brush. Received a cold "No". Then a maintenance superintendent standing nearby offered some high grade maintenance tape. Worked liked a champ. Great when support personnel pick up for non-receptive desk personnel.MoreShow less</t>
-  </si>
-  <si>
-    <t>Andrew R, Manager at Courtyard by Marriott Dallas Plano/Richardson, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Rooms very well designed. Motel right on PGBT which has a lot of road noise. Room was on the back side of hotel. No road noise. The person at registration had an attitude. Acted like she could care if I stayed at the hotel. Later, I discovered i did not have a lint brush. Went to the front desk and asked if they had a lint brush. Received a cold "No". Then a maintenance superintendent standing nearby offered some high grade maintenance tape. Worked liked a champ. Great when support personnel pick up for non-receptive desk personnel.More</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r451285402-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>451285402</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Road noise!!</t>
+  </si>
+  <si>
+    <t>Only open about 90 days or so...  The staff is very friendly.  Housekeeping still working out some consistency bugs...  A very nice facility and very convenient to the Plano area, close to lots of dining options!  But, make sure to get a room on the back side of the building, the noise from PGB Pkwy is terrible if you're not a very sound sleeper!!  I'll try it again...MoreShow less</t>
+  </si>
+  <si>
+    <t>Only open about 90 days or so...  The staff is very friendly.  Housekeeping still working out some consistency bugs...  A very nice facility and very convenient to the Plano area, close to lots of dining options!  But, make sure to get a room on the back side of the building, the noise from PGB Pkwy is terrible if you're not a very sound sleeper!!  I'll try it again...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d10831737-r444105961-Courtyard_by_Marriott_Dallas_Plano_Richardson-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>444105961</t>
+  </si>
+  <si>
+    <t>12/13/2016</t>
+  </si>
+  <si>
+    <t>New hotel in a booming area</t>
+  </si>
+  <si>
+    <t>We chose this hotel for a 4 night stay as it was open only recently. It is in a growing part of South Plano and appears that the majority of the guests were business related. To our delight it mirrored another Courtyard that we had been the day before in West Texas. The property is lovely and modern. The rooms are a generous size with amazingly comfortable beds, unique sofa, great shower and amenities. Since it is so new they have a few quirks to work out but know they will in time. We especially want to acknowledge the warm late night greetings from Stephanie and the day time assistance of Jazzmine, Devona and Nikki.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Ronnie  M, Assistat General Manager at Courtyard by Marriott Dallas Plano/Richardson, responded to this reviewResponded January 25, 2017</t>
+  </si>
+  <si>
+    <t>We chose this hotel for a 4 night stay as it was open only recently. It is in a growing part of South Plano and appears that the majority of the guests were business related. To our delight it mirrored another Courtyard that we had been the day before in West Texas. The property is lovely and modern. The rooms are a generous size with amazingly comfortable beds, unique sofa, great shower and amenities. Since it is so new they have a few quirks to work out but know they will in time. We especially want to acknowledge the warm late night greetings from Stephanie and the day time assistance of Jazzmine, Devona and Nikki.More</t>
   </si>
 </sst>
 </file>
@@ -1143,47 +1260,43 @@
       <c r="A2" t="n">
         <v>65499</v>
       </c>
-      <c r="B2" t="n">
-        <v>127202</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1195,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1214,165 +1327,163 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65499</v>
       </c>
-      <c r="B4" t="n">
-        <v>127203</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65499</v>
       </c>
-      <c r="B5" t="n">
-        <v>111466</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1383,57 +1494,57 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65499</v>
       </c>
-      <c r="B6" t="n">
-        <v>127204</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
         <v>62</v>
-      </c>
-      <c r="O6" t="s">
-        <v>70</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1444,107 +1555,103 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>63</v>
+      </c>
+      <c r="X6" t="s">
+        <v>64</v>
+      </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65499</v>
       </c>
-      <c r="B7" t="n">
-        <v>127205</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65499</v>
       </c>
-      <c r="B8" t="n">
-        <v>127206</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
       </c>
       <c r="I8" t="s">
         <v>97</v>
@@ -1559,85 +1666,79 @@
         <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65499</v>
       </c>
-      <c r="B9" t="n">
-        <v>1733</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
       <c r="R9" t="n">
         <v>5</v>
       </c>
@@ -1652,51 +1753,51 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65499</v>
       </c>
-      <c r="B10" t="n">
-        <v>127207</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
         <v>112</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>113</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>114</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>115</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>116</v>
       </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -1709,54 +1810,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65499</v>
       </c>
-      <c r="B11" t="n">
-        <v>127208</v>
-      </c>
-      <c r="C11" t="s">
-        <v>117</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
         <v>118</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>119</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>120</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>121</v>
       </c>
-      <c r="L11" t="s">
-        <v>122</v>
-      </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1777,121 +1874,109 @@
       <c r="A12" t="n">
         <v>65499</v>
       </c>
-      <c r="B12" t="n">
-        <v>127209</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
         <v>125</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>126</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>127</v>
       </c>
-      <c r="K12" t="s">
-        <v>128</v>
-      </c>
-      <c r="L12" t="s">
-        <v>129</v>
-      </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65499</v>
       </c>
-      <c r="B13" t="n">
-        <v>127210</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
         <v>133</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>134</v>
       </c>
-      <c r="J13" t="s">
-        <v>135</v>
-      </c>
-      <c r="K13" t="s">
-        <v>136</v>
-      </c>
-      <c r="L13" t="s">
-        <v>137</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>130</v>
-      </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -1902,322 +1987,304 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65499</v>
       </c>
-      <c r="B14" t="n">
-        <v>1950</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>145</v>
-      </c>
-      <c r="O14" t="s">
-        <v>70</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65499</v>
       </c>
-      <c r="B15" t="n">
-        <v>14861</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" t="s">
+        <v>146</v>
+      </c>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65499</v>
       </c>
-      <c r="B16" t="n">
-        <v>127211</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="X16" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65499</v>
       </c>
-      <c r="B17" t="n">
-        <v>127212</v>
-      </c>
-      <c r="C17" t="s">
-        <v>162</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="X17" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65499</v>
       </c>
-      <c r="B18" t="n">
-        <v>127213</v>
-      </c>
-      <c r="C18" t="s">
-        <v>172</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -2226,207 +2293,685 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>145</v>
+      </c>
+      <c r="X18" t="s">
+        <v>146</v>
+      </c>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65499</v>
       </c>
-      <c r="B19" t="n">
-        <v>127214</v>
-      </c>
-      <c r="C19" t="s">
-        <v>178</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65499</v>
       </c>
-      <c r="B20" t="n">
-        <v>127215</v>
-      </c>
-      <c r="C20" t="s">
-        <v>184</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>169</v>
-      </c>
-      <c r="X20" t="s">
-        <v>170</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65499</v>
       </c>
-      <c r="B21" t="n">
-        <v>26400</v>
-      </c>
-      <c r="C21" t="s">
-        <v>192</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>190</v>
-      </c>
-      <c r="O21" t="s">
-        <v>101</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>65499</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>191</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>65499</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
         <v>198</v>
       </c>
-      <c r="X21" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>65499</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
         <v>199</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
         <v>200</v>
+      </c>
+      <c r="J24" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>197</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>65499</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>210</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>65499</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>65499</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s">
+        <v>220</v>
+      </c>
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>222</v>
+      </c>
+      <c r="X27" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>65499</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>226</v>
+      </c>
+      <c r="J28" t="s">
+        <v>227</v>
+      </c>
+      <c r="K28" t="s">
+        <v>228</v>
+      </c>
+      <c r="L28" t="s">
+        <v>229</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>216</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>222</v>
+      </c>
+      <c r="X28" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>65499</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>232</v>
+      </c>
+      <c r="J29" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" t="s">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>236</v>
+      </c>
+      <c r="O29" t="s">
+        <v>237</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>238</v>
+      </c>
+      <c r="X29" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
